--- a/Dados Modificados/Tabela de dados de horarios e potencias.xlsx
+++ b/Dados Modificados/Tabela de dados de horarios e potencias.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Planilha2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Planilha3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Planilha4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="70">
   <si>
     <t xml:space="preserve">Equipamento</t>
   </si>
@@ -392,7 +393,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -426,10 +427,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -572,11 +569,11 @@
   </sheetPr>
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S25" activeCellId="0" sqref="S25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="0" width="6.9"/>
@@ -1879,7 +1876,7 @@
       <c r="N17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="O17" s="9" t="n">
+      <c r="O17" s="6" t="n">
         <v>1</v>
       </c>
       <c r="P17" s="6" t="n">
@@ -2263,444 +2260,444 @@
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="16" t="n">
+      <c r="C2" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="n">
         <v>0.65</v>
       </c>
-      <c r="E2" s="15" t="n">
+      <c r="E2" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="18"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
     </row>
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="16" t="n">
+      <c r="C3" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15" t="n">
         <v>0.65</v>
       </c>
-      <c r="E3" s="21" t="n">
+      <c r="E3" s="20" t="n">
         <v>2.5</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="19"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="16" t="n">
+      <c r="C4" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15" t="n">
         <v>0.65</v>
       </c>
-      <c r="E4" s="15" t="n">
+      <c r="E4" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="19"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
     </row>
     <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="16" t="n">
+      <c r="C5" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15" t="n">
         <v>0.65</v>
       </c>
-      <c r="E5" s="21" t="n">
+      <c r="E5" s="20" t="n">
         <v>2.5</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="19"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="18"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="22" t="n">
+      <c r="C6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="21" t="n">
         <v>0.7</v>
       </c>
-      <c r="E6" s="15" t="n">
+      <c r="E6" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="22" t="n">
+      <c r="C7" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21" t="n">
         <v>0.7</v>
       </c>
-      <c r="E7" s="15" t="n">
+      <c r="E7" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="16" t="n">
+      <c r="C8" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15" t="n">
         <v>0.75</v>
       </c>
-      <c r="E8" s="15" t="n">
+      <c r="E8" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="19"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="22" t="n">
+      <c r="C9" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="21" t="n">
         <v>0.8</v>
       </c>
-      <c r="E9" s="15" t="n">
+      <c r="E9" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="22" t="n">
+      <c r="C10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="21" t="n">
         <v>0.8</v>
       </c>
-      <c r="E10" s="15" t="n">
+      <c r="E10" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
     </row>
     <row r="11" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="15" t="n">
+      <c r="C11" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="15" t="n">
+      <c r="C12" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="14" t="n">
         <v>60</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
     </row>
     <row r="13" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="15" t="n">
+      <c r="C13" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14" t="n">
         <v>80</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H14" s="20"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2721,161 +2718,542 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>46</v>
       </c>
+      <c r="E1" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="14" t="n">
+        <v>125</v>
+      </c>
+      <c r="D2" s="23" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E2" s="15" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" s="23" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E3" s="15" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" s="23" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E4" s="15" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="14" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" s="23" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E5" s="15" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="14" t="n">
+        <v>200</v>
+      </c>
+      <c r="D6" s="23" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E6" s="15" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="14" t="n">
+        <v>200</v>
+      </c>
+      <c r="D7" s="23" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E7" s="15" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="14" t="n">
+        <v>150</v>
+      </c>
+      <c r="D8" s="23" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="14" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" s="23" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E9" s="15" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="E1" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E2" s="14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E3" s="20" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E4" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E5" s="20" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="21" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E6" s="14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E7" s="14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E9" s="14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="14" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="14" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="15" t="n">
+      <c r="C14" s="14" t="n">
         <v>125</v>
       </c>
-      <c r="D2" s="24" t="n">
+      <c r="D14" s="23" t="n">
         <v>0.95</v>
       </c>
-      <c r="E2" s="16" t="n">
+      <c r="E14" s="15" t="n">
         <v>0.85</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="15" t="n">
+      <c r="C15" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="D3" s="24" t="n">
+      <c r="D15" s="23" t="n">
         <v>0.95</v>
       </c>
-      <c r="E3" s="16" t="n">
+      <c r="E15" s="15" t="n">
         <v>0.85</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="15" t="n">
+      <c r="C16" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="D4" s="24" t="n">
+      <c r="D16" s="23" t="n">
         <v>0.95</v>
       </c>
-      <c r="E4" s="16" t="n">
+      <c r="E16" s="15" t="n">
         <v>0.85</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="15" t="n">
+      <c r="C17" s="14" t="n">
         <v>70</v>
       </c>
-      <c r="D5" s="24" t="n">
+      <c r="D17" s="23" t="n">
         <v>0.95</v>
       </c>
-      <c r="E5" s="16" t="n">
+      <c r="E17" s="15" t="n">
         <v>0.85</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="15" t="n">
+      <c r="C18" s="14" t="n">
         <v>200</v>
       </c>
-      <c r="D6" s="24" t="n">
+      <c r="D18" s="23" t="n">
         <v>0.95</v>
       </c>
-      <c r="E6" s="16" t="n">
+      <c r="E18" s="15" t="n">
         <v>0.85</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="15" t="n">
+      <c r="C19" s="14" t="n">
         <v>200</v>
       </c>
-      <c r="D7" s="24" t="n">
+      <c r="D19" s="23" t="n">
         <v>0.95</v>
       </c>
-      <c r="E7" s="16" t="n">
+      <c r="E19" s="15" t="n">
         <v>0.85</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="15" t="n">
+      <c r="C20" s="14" t="n">
         <v>150</v>
       </c>
-      <c r="D8" s="24" t="n">
+      <c r="D20" s="23" t="n">
         <v>0.95</v>
       </c>
-      <c r="E8" s="16" t="n">
+      <c r="E20" s="15" t="n">
         <v>0.85</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="15" t="n">
+      <c r="C21" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="D9" s="24" t="n">
+      <c r="D21" s="23" t="n">
         <v>0.95</v>
       </c>
-      <c r="E9" s="16" t="n">
+      <c r="E21" s="15" t="n">
         <v>0.85</v>
       </c>
     </row>
